--- a/Documents/ChunkUpdateMath.xlsx
+++ b/Documents/ChunkUpdateMath.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudioProjects\PixelProject\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE1950D-EB43-455E-AC27-517CB89C5D87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C14F46-497B-4440-AD25-B3571964B447}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{11E5D31D-36D7-45CF-BBA8-6E265D1131AF}"/>
+    <workbookView xWindow="31305" yWindow="7140" windowWidth="21600" windowHeight="11475" activeTab="3" xr2:uid="{11E5D31D-36D7-45CF-BBA8-6E265D1131AF}"/>
   </bookViews>
   <sheets>
     <sheet name="ChunkUpdate" sheetId="1" r:id="rId1"/>
-    <sheet name="Split Chunk Update Order" sheetId="2" r:id="rId2"/>
+    <sheet name="Chunk Borders" sheetId="4" r:id="rId2"/>
+    <sheet name="Split Chunk Update Order" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
   <si>
     <t>Index</t>
   </si>
@@ -81,12 +83,24 @@
   <si>
     <t>Y</t>
   </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Cell_ID</t>
+  </si>
+  <si>
+    <t>Chunk_Width</t>
+  </si>
+  <si>
+    <t>Chunk_Height</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +130,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -136,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -224,12 +267,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -273,12 +327,208 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -330,8 +580,8 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.39994506668294322"/>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -342,6 +592,72 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -658,7 +974,7 @@
   <dimension ref="A1:AJ33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AK5" sqref="AK5"/>
+      <selection activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1279,7 +1595,7 @@
       </c>
       <c r="AI6">
         <f>_xlfn.FLOOR.MATH(AI5/AI2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1384,7 +1700,7 @@
       </c>
       <c r="AI7">
         <f>SUM(AI5-(AI6*AI3))</f>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1586,8 +1902,8 @@
         <v>12</v>
       </c>
       <c r="AI9">
-        <f>SUM(AI5-(AI3 *1))</f>
-        <v>30</v>
+        <f>SUM(AI5-AI3)</f>
+        <v>-32</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1691,8 +2007,8 @@
         <v>5</v>
       </c>
       <c r="AI10">
-        <f>SUM((AI5 - AI3) + 1)</f>
-        <v>31</v>
+        <f>SUM(AI5-AI3+1)</f>
+        <v>-31</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1797,7 +2113,7 @@
       </c>
       <c r="AI11">
         <f>SUM(AI5+1)</f>
-        <v>63</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1901,8 +2217,8 @@
         <v>7</v>
       </c>
       <c r="AI12">
-        <f>SUM(AI11+AI3)</f>
-        <v>95</v>
+        <f>SUM(AI5+AI3+1)</f>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2007,7 +2323,7 @@
       </c>
       <c r="AI13">
         <f>SUM(AI5+AI3)</f>
-        <v>94</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2111,8 +2427,8 @@
         <v>9</v>
       </c>
       <c r="AI14">
-        <f>SUM(AI15+AI3)</f>
-        <v>93</v>
+        <f>SUM(AI5+AI3-1)</f>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2217,7 +2533,7 @@
       </c>
       <c r="AI15">
         <f>SUM(AI5-1)</f>
-        <v>61</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2321,8 +2637,8 @@
         <v>11</v>
       </c>
       <c r="AI16">
-        <f>SUM(AI15-AI3)</f>
-        <v>29</v>
+        <f>SUM(AI5-AI3-1)</f>
+        <v>-33</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3896,32 +4212,32 @@
     <row r="33" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="A1:AF32">
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
-      <formula>$AI$5</formula>
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
+      <formula>$AI$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
+      <formula>$AI$15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
+      <formula>$AI$14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
+      <formula>$AI$13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
+      <formula>$AI$12</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="6" operator="equal">
+      <formula>$AI$11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
+      <formula>$AI$10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
       <formula>$AI$9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>$AI$10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>$AI$11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>$AI$12</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>$AI$13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>$AI$14</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>$AI$15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>$AI$16</formula>
+    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
+      <formula>$AI$5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3930,11 +4246,1105 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B1557E-0B99-4E44-80AF-8BAF83E70CC2}">
+  <dimension ref="A1:AB19"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16" width="3.42578125" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" style="1" customWidth="1"/>
+    <col min="18" max="19" width="9.140625" style="14"/>
+    <col min="20" max="20" width="9.140625" style="2"/>
+    <col min="21" max="28" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19">
+        <v>-6</v>
+      </c>
+      <c r="L1" s="19">
+        <v>-5</v>
+      </c>
+      <c r="M1" s="19">
+        <v>-4</v>
+      </c>
+      <c r="N1" s="19">
+        <v>-3</v>
+      </c>
+      <c r="O1" s="19">
+        <v>-2</v>
+      </c>
+      <c r="P1" s="29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19">
+        <v>3</v>
+      </c>
+      <c r="E2" s="19">
+        <v>4</v>
+      </c>
+      <c r="F2" s="19">
+        <v>5</v>
+      </c>
+      <c r="G2" s="19">
+        <v>6</v>
+      </c>
+      <c r="H2" s="19">
+        <v>7</v>
+      </c>
+      <c r="I2" s="19">
+        <v>8</v>
+      </c>
+      <c r="J2" s="19">
+        <v>9</v>
+      </c>
+      <c r="K2" s="19">
+        <v>10</v>
+      </c>
+      <c r="L2" s="19">
+        <v>11</v>
+      </c>
+      <c r="M2" s="19">
+        <v>12</v>
+      </c>
+      <c r="N2" s="19">
+        <v>13</v>
+      </c>
+      <c r="O2" s="19">
+        <v>14</v>
+      </c>
+      <c r="P2" s="20">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="17"/>
+    </row>
+    <row r="3" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
+        <v>16</v>
+      </c>
+      <c r="B3" s="18">
+        <v>17</v>
+      </c>
+      <c r="C3" s="19">
+        <v>18</v>
+      </c>
+      <c r="D3" s="19">
+        <v>19</v>
+      </c>
+      <c r="E3" s="19">
+        <v>20</v>
+      </c>
+      <c r="F3" s="19">
+        <v>21</v>
+      </c>
+      <c r="G3" s="19">
+        <v>22</v>
+      </c>
+      <c r="H3" s="19">
+        <v>23</v>
+      </c>
+      <c r="I3" s="19">
+        <v>24</v>
+      </c>
+      <c r="J3" s="19">
+        <v>25</v>
+      </c>
+      <c r="K3" s="19">
+        <v>26</v>
+      </c>
+      <c r="L3" s="19">
+        <v>27</v>
+      </c>
+      <c r="M3" s="19">
+        <v>28</v>
+      </c>
+      <c r="N3" s="19">
+        <v>29</v>
+      </c>
+      <c r="O3" s="20">
+        <v>30</v>
+      </c>
+      <c r="P3" s="23">
+        <v>31</v>
+      </c>
+      <c r="R3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
+        <v>32</v>
+      </c>
+      <c r="B4" s="21">
+        <v>33</v>
+      </c>
+      <c r="C4" s="22">
+        <v>34</v>
+      </c>
+      <c r="D4" s="22">
+        <v>35</v>
+      </c>
+      <c r="E4" s="22">
+        <v>36</v>
+      </c>
+      <c r="F4" s="22">
+        <v>37</v>
+      </c>
+      <c r="G4" s="22">
+        <v>38</v>
+      </c>
+      <c r="H4" s="22">
+        <v>39</v>
+      </c>
+      <c r="I4" s="22">
+        <v>40</v>
+      </c>
+      <c r="J4" s="22">
+        <v>41</v>
+      </c>
+      <c r="K4" s="22">
+        <v>42</v>
+      </c>
+      <c r="L4" s="22">
+        <v>43</v>
+      </c>
+      <c r="M4" s="22">
+        <v>44</v>
+      </c>
+      <c r="N4" s="22">
+        <v>45</v>
+      </c>
+      <c r="O4" s="23">
+        <v>46</v>
+      </c>
+      <c r="P4" s="23">
+        <v>47</v>
+      </c>
+      <c r="R4" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="14">
+        <v>16</v>
+      </c>
+      <c r="W4" s="30"/>
+    </row>
+    <row r="5" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
+        <v>48</v>
+      </c>
+      <c r="B5" s="21">
+        <v>49</v>
+      </c>
+      <c r="C5" s="22">
+        <v>50</v>
+      </c>
+      <c r="D5" s="22">
+        <v>51</v>
+      </c>
+      <c r="E5" s="22">
+        <v>52</v>
+      </c>
+      <c r="F5" s="22">
+        <v>53</v>
+      </c>
+      <c r="G5" s="22">
+        <v>54</v>
+      </c>
+      <c r="H5" s="22">
+        <v>55</v>
+      </c>
+      <c r="I5" s="22">
+        <v>56</v>
+      </c>
+      <c r="J5" s="22">
+        <v>57</v>
+      </c>
+      <c r="K5" s="22">
+        <v>58</v>
+      </c>
+      <c r="L5" s="22">
+        <v>59</v>
+      </c>
+      <c r="M5" s="22">
+        <v>60</v>
+      </c>
+      <c r="N5" s="22">
+        <v>61</v>
+      </c>
+      <c r="O5" s="23">
+        <v>62</v>
+      </c>
+      <c r="P5" s="23">
+        <v>63</v>
+      </c>
+      <c r="R5" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="S5" s="14">
+        <f>SUM(S3*S4)</f>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
+        <v>64</v>
+      </c>
+      <c r="B6" s="21">
+        <v>65</v>
+      </c>
+      <c r="C6" s="22">
+        <v>66</v>
+      </c>
+      <c r="D6" s="22">
+        <v>67</v>
+      </c>
+      <c r="E6" s="22">
+        <v>68</v>
+      </c>
+      <c r="F6" s="22">
+        <v>69</v>
+      </c>
+      <c r="G6" s="22">
+        <v>70</v>
+      </c>
+      <c r="H6" s="22">
+        <v>71</v>
+      </c>
+      <c r="I6" s="22">
+        <v>72</v>
+      </c>
+      <c r="J6" s="22">
+        <v>73</v>
+      </c>
+      <c r="K6" s="22">
+        <v>74</v>
+      </c>
+      <c r="L6" s="22">
+        <v>75</v>
+      </c>
+      <c r="M6" s="22">
+        <v>76</v>
+      </c>
+      <c r="N6" s="22">
+        <v>77</v>
+      </c>
+      <c r="O6" s="23">
+        <v>78</v>
+      </c>
+      <c r="P6" s="23">
+        <v>79</v>
+      </c>
+      <c r="R6" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6" s="14">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
+        <v>80</v>
+      </c>
+      <c r="B7" s="21">
+        <v>81</v>
+      </c>
+      <c r="C7" s="22">
+        <v>82</v>
+      </c>
+      <c r="D7" s="22">
+        <v>83</v>
+      </c>
+      <c r="E7" s="22">
+        <v>84</v>
+      </c>
+      <c r="F7" s="22">
+        <v>85</v>
+      </c>
+      <c r="G7" s="22">
+        <v>86</v>
+      </c>
+      <c r="H7" s="22">
+        <v>87</v>
+      </c>
+      <c r="I7" s="22">
+        <v>88</v>
+      </c>
+      <c r="J7" s="22">
+        <v>89</v>
+      </c>
+      <c r="K7" s="22">
+        <v>90</v>
+      </c>
+      <c r="L7" s="22">
+        <v>91</v>
+      </c>
+      <c r="M7" s="22">
+        <v>92</v>
+      </c>
+      <c r="N7" s="22">
+        <v>93</v>
+      </c>
+      <c r="O7" s="23">
+        <v>94</v>
+      </c>
+      <c r="P7" s="23">
+        <v>95</v>
+      </c>
+      <c r="R7" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="S7" s="14">
+        <f>_xlfn.FLOOR.MATH(S6/S3)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
+        <v>96</v>
+      </c>
+      <c r="B8" s="21">
+        <v>97</v>
+      </c>
+      <c r="C8" s="22">
+        <v>98</v>
+      </c>
+      <c r="D8" s="22">
+        <v>99</v>
+      </c>
+      <c r="E8" s="22">
+        <v>100</v>
+      </c>
+      <c r="F8" s="22">
+        <v>101</v>
+      </c>
+      <c r="G8" s="22">
+        <v>102</v>
+      </c>
+      <c r="H8" s="22">
+        <v>103</v>
+      </c>
+      <c r="I8" s="22">
+        <v>104</v>
+      </c>
+      <c r="J8" s="22">
+        <v>105</v>
+      </c>
+      <c r="K8" s="22">
+        <v>106</v>
+      </c>
+      <c r="L8" s="22">
+        <v>107</v>
+      </c>
+      <c r="M8" s="22">
+        <v>108</v>
+      </c>
+      <c r="N8" s="22">
+        <v>109</v>
+      </c>
+      <c r="O8" s="23">
+        <v>110</v>
+      </c>
+      <c r="P8" s="23">
+        <v>111</v>
+      </c>
+      <c r="R8" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="S8" s="14">
+        <f>SUM(S6-(S7*S4))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21">
+        <v>112</v>
+      </c>
+      <c r="B9" s="21">
+        <v>113</v>
+      </c>
+      <c r="C9" s="22">
+        <v>114</v>
+      </c>
+      <c r="D9" s="22">
+        <v>115</v>
+      </c>
+      <c r="E9" s="22">
+        <v>116</v>
+      </c>
+      <c r="F9" s="22">
+        <v>117</v>
+      </c>
+      <c r="G9" s="22">
+        <v>118</v>
+      </c>
+      <c r="H9" s="22">
+        <v>119</v>
+      </c>
+      <c r="I9" s="22">
+        <v>120</v>
+      </c>
+      <c r="J9" s="22">
+        <v>121</v>
+      </c>
+      <c r="K9" s="22">
+        <v>122</v>
+      </c>
+      <c r="L9" s="22">
+        <v>123</v>
+      </c>
+      <c r="M9" s="22">
+        <v>124</v>
+      </c>
+      <c r="N9" s="22">
+        <v>125</v>
+      </c>
+      <c r="O9" s="23">
+        <v>126</v>
+      </c>
+      <c r="P9" s="23">
+        <v>127</v>
+      </c>
+      <c r="U9" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="X9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB9" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
+        <v>128</v>
+      </c>
+      <c r="B10" s="21">
+        <v>129</v>
+      </c>
+      <c r="C10" s="22">
+        <v>130</v>
+      </c>
+      <c r="D10" s="22">
+        <v>131</v>
+      </c>
+      <c r="E10" s="22">
+        <v>132</v>
+      </c>
+      <c r="F10" s="22">
+        <v>133</v>
+      </c>
+      <c r="G10" s="22">
+        <v>134</v>
+      </c>
+      <c r="H10" s="22">
+        <v>135</v>
+      </c>
+      <c r="I10" s="22">
+        <v>136</v>
+      </c>
+      <c r="J10" s="22">
+        <v>137</v>
+      </c>
+      <c r="K10" s="22">
+        <v>138</v>
+      </c>
+      <c r="L10" s="22">
+        <v>139</v>
+      </c>
+      <c r="M10" s="22">
+        <v>140</v>
+      </c>
+      <c r="N10" s="22">
+        <v>141</v>
+      </c>
+      <c r="O10" s="23">
+        <v>142</v>
+      </c>
+      <c r="P10" s="23">
+        <v>143</v>
+      </c>
+      <c r="R10" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="U10" s="32">
+        <f>SUM(S5-S4+S8)</f>
+        <v>240</v>
+      </c>
+      <c r="V10" s="14">
+        <f>SUM(S5-S4+1+S8)</f>
+        <v>241</v>
+      </c>
+      <c r="AB10" s="14">
+        <f>SUM(S5-1-S4+S8)</f>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21">
+        <v>144</v>
+      </c>
+      <c r="B11" s="21">
+        <v>145</v>
+      </c>
+      <c r="C11" s="22">
+        <v>146</v>
+      </c>
+      <c r="D11" s="22">
+        <v>147</v>
+      </c>
+      <c r="E11" s="22">
+        <v>148</v>
+      </c>
+      <c r="F11" s="22">
+        <v>149</v>
+      </c>
+      <c r="G11" s="22">
+        <v>150</v>
+      </c>
+      <c r="H11" s="22">
+        <v>151</v>
+      </c>
+      <c r="I11" s="22">
+        <v>152</v>
+      </c>
+      <c r="J11" s="22">
+        <v>153</v>
+      </c>
+      <c r="K11" s="22">
+        <v>154</v>
+      </c>
+      <c r="L11" s="22">
+        <v>155</v>
+      </c>
+      <c r="M11" s="22">
+        <v>156</v>
+      </c>
+      <c r="N11" s="22">
+        <v>157</v>
+      </c>
+      <c r="O11" s="23">
+        <v>158</v>
+      </c>
+      <c r="P11" s="23">
+        <v>159</v>
+      </c>
+      <c r="R11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="U11" s="32"/>
+      <c r="V11" s="14">
+        <f>SUM(S5 - S4)</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21">
+        <v>160</v>
+      </c>
+      <c r="B12" s="21">
+        <v>161</v>
+      </c>
+      <c r="C12" s="22">
+        <v>162</v>
+      </c>
+      <c r="D12" s="22">
+        <v>163</v>
+      </c>
+      <c r="E12" s="22">
+        <v>164</v>
+      </c>
+      <c r="F12" s="22">
+        <v>165</v>
+      </c>
+      <c r="G12" s="22">
+        <v>166</v>
+      </c>
+      <c r="H12" s="22">
+        <v>167</v>
+      </c>
+      <c r="I12" s="22">
+        <v>168</v>
+      </c>
+      <c r="J12" s="22">
+        <v>169</v>
+      </c>
+      <c r="K12" s="22">
+        <v>170</v>
+      </c>
+      <c r="L12" s="22">
+        <v>171</v>
+      </c>
+      <c r="M12" s="22">
+        <v>172</v>
+      </c>
+      <c r="N12" s="22">
+        <v>173</v>
+      </c>
+      <c r="O12" s="23">
+        <v>174</v>
+      </c>
+      <c r="P12" s="23">
+        <v>175</v>
+      </c>
+      <c r="R12" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="U12" s="32"/>
+      <c r="V12" s="14">
+        <f>SUM(S6-S4-S8)</f>
+        <v>192</v>
+      </c>
+      <c r="W12" s="14">
+        <f>SUM(S6-S8)</f>
+        <v>208</v>
+      </c>
+      <c r="X12" s="14">
+        <f>SUM(S6+1)</f>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21">
+        <v>176</v>
+      </c>
+      <c r="B13" s="21">
+        <v>177</v>
+      </c>
+      <c r="C13" s="22">
+        <v>178</v>
+      </c>
+      <c r="D13" s="22">
+        <v>179</v>
+      </c>
+      <c r="E13" s="22">
+        <v>180</v>
+      </c>
+      <c r="F13" s="22">
+        <v>181</v>
+      </c>
+      <c r="G13" s="22">
+        <v>182</v>
+      </c>
+      <c r="H13" s="22">
+        <v>183</v>
+      </c>
+      <c r="I13" s="22">
+        <v>184</v>
+      </c>
+      <c r="J13" s="22">
+        <v>185</v>
+      </c>
+      <c r="K13" s="22">
+        <v>186</v>
+      </c>
+      <c r="L13" s="22">
+        <v>187</v>
+      </c>
+      <c r="M13" s="22">
+        <v>188</v>
+      </c>
+      <c r="N13" s="22">
+        <v>189</v>
+      </c>
+      <c r="O13" s="23">
+        <v>190</v>
+      </c>
+      <c r="P13" s="23">
+        <v>191</v>
+      </c>
+      <c r="R13" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="U13" s="32"/>
+      <c r="X13" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21">
+        <v>192</v>
+      </c>
+      <c r="B14" s="21">
+        <v>193</v>
+      </c>
+      <c r="C14" s="22">
+        <v>194</v>
+      </c>
+      <c r="D14" s="22">
+        <v>195</v>
+      </c>
+      <c r="E14" s="22">
+        <v>196</v>
+      </c>
+      <c r="F14" s="22">
+        <v>197</v>
+      </c>
+      <c r="G14" s="22">
+        <v>198</v>
+      </c>
+      <c r="H14" s="22">
+        <v>199</v>
+      </c>
+      <c r="I14" s="22">
+        <v>200</v>
+      </c>
+      <c r="J14" s="22">
+        <v>201</v>
+      </c>
+      <c r="K14" s="22">
+        <v>202</v>
+      </c>
+      <c r="L14" s="22">
+        <v>203</v>
+      </c>
+      <c r="M14" s="22">
+        <v>204</v>
+      </c>
+      <c r="N14" s="22">
+        <v>205</v>
+      </c>
+      <c r="O14" s="23">
+        <v>206</v>
+      </c>
+      <c r="P14" s="23">
+        <v>207</v>
+      </c>
+      <c r="R14" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="32"/>
+      <c r="X14" s="14">
+        <f>SUM(S8+1)</f>
+        <v>1</v>
+      </c>
+      <c r="Y14" s="14">
+        <f>SUM(S8)</f>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="14">
+        <f>SUM(S8-1)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21">
+        <v>208</v>
+      </c>
+      <c r="B15" s="21">
+        <v>209</v>
+      </c>
+      <c r="C15" s="22">
+        <v>210</v>
+      </c>
+      <c r="D15" s="22">
+        <v>211</v>
+      </c>
+      <c r="E15" s="22">
+        <v>212</v>
+      </c>
+      <c r="F15" s="22">
+        <v>213</v>
+      </c>
+      <c r="G15" s="22">
+        <v>214</v>
+      </c>
+      <c r="H15" s="22">
+        <v>215</v>
+      </c>
+      <c r="I15" s="22">
+        <v>216</v>
+      </c>
+      <c r="J15" s="22">
+        <v>217</v>
+      </c>
+      <c r="K15" s="22">
+        <v>218</v>
+      </c>
+      <c r="L15" s="22">
+        <v>219</v>
+      </c>
+      <c r="M15" s="22">
+        <v>220</v>
+      </c>
+      <c r="N15" s="22">
+        <v>221</v>
+      </c>
+      <c r="O15" s="23">
+        <v>222</v>
+      </c>
+      <c r="P15" s="23">
+        <v>223</v>
+      </c>
+      <c r="R15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="U15" s="32"/>
+      <c r="Z15" s="14">
+        <f>SUM(S4-1)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="21">
+        <v>224</v>
+      </c>
+      <c r="B16" s="24">
+        <v>225</v>
+      </c>
+      <c r="C16" s="25">
+        <v>226</v>
+      </c>
+      <c r="D16" s="25">
+        <v>227</v>
+      </c>
+      <c r="E16" s="25">
+        <v>228</v>
+      </c>
+      <c r="F16" s="25">
+        <v>229</v>
+      </c>
+      <c r="G16" s="25">
+        <v>230</v>
+      </c>
+      <c r="H16" s="25">
+        <v>231</v>
+      </c>
+      <c r="I16" s="25">
+        <v>232</v>
+      </c>
+      <c r="J16" s="25">
+        <v>233</v>
+      </c>
+      <c r="K16" s="25">
+        <v>234</v>
+      </c>
+      <c r="L16" s="25">
+        <v>235</v>
+      </c>
+      <c r="M16" s="25">
+        <v>236</v>
+      </c>
+      <c r="N16" s="25">
+        <v>237</v>
+      </c>
+      <c r="O16" s="26">
+        <v>238</v>
+      </c>
+      <c r="P16" s="23">
+        <v>239</v>
+      </c>
+      <c r="R16" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="U16" s="32"/>
+      <c r="Z16" s="14">
+        <f>SUM(S6+S4)</f>
+        <v>224</v>
+      </c>
+      <c r="AA16" s="14">
+        <f>SUM(S6+S4-1)</f>
+        <v>223</v>
+      </c>
+      <c r="AB16" s="14">
+        <f>SUM(S6-1)</f>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="24">
+        <v>240</v>
+      </c>
+      <c r="B17" s="25">
+        <v>241</v>
+      </c>
+      <c r="C17" s="25">
+        <v>242</v>
+      </c>
+      <c r="D17" s="25">
+        <v>243</v>
+      </c>
+      <c r="E17" s="25">
+        <v>244</v>
+      </c>
+      <c r="F17" s="25">
+        <v>245</v>
+      </c>
+      <c r="G17" s="25">
+        <v>246</v>
+      </c>
+      <c r="H17" s="25">
+        <v>247</v>
+      </c>
+      <c r="I17" s="25">
+        <v>248</v>
+      </c>
+      <c r="J17" s="25">
+        <v>249</v>
+      </c>
+      <c r="K17" s="25">
+        <v>250</v>
+      </c>
+      <c r="L17" s="25">
+        <v>251</v>
+      </c>
+      <c r="M17" s="25">
+        <v>252</v>
+      </c>
+      <c r="N17" s="25">
+        <v>253</v>
+      </c>
+      <c r="O17" s="25">
+        <v>254</v>
+      </c>
+      <c r="P17" s="26">
+        <v>255</v>
+      </c>
+      <c r="R17" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="U17" s="32"/>
+      <c r="AB17" s="14">
+        <f>SUM(S5-1)</f>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="31">
+        <v>256</v>
+      </c>
+      <c r="B18" s="31">
+        <v>257</v>
+      </c>
+      <c r="C18" s="31">
+        <v>258</v>
+      </c>
+      <c r="D18" s="31">
+        <v>259</v>
+      </c>
+      <c r="E18" s="31">
+        <v>260</v>
+      </c>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="R18" s="27"/>
+      <c r="U18" s="32"/>
+    </row>
+    <row r="19" spans="1:28" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:P18">
+    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
+      <formula>$S$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB10:AB18">
+    <cfRule type="duplicateValues" dxfId="19" priority="13"/>
+    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
+      <formula>$S$17</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+      <formula>$S$16</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>$S$15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+      <formula>$S$14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
+      <formula>$S$13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="20" operator="equal">
+      <formula>$S$12</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="21" operator="equal">
+      <formula>$S$11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="22" operator="equal">
+      <formula>$S$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:P1">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+      <formula>$S$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:P18 AB10:AB18">
+    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA41F04B-4D7F-4096-B1C2-6C3671D07E33}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4316,4 +5726,1275 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D61EA23-8960-4D35-B73F-6BF8BB0B9F26}">
+  <dimension ref="A1:AA22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="22" width="5.7109375" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="42"/>
+    <col min="24" max="24" width="22" style="42" customWidth="1"/>
+    <col min="25" max="25" width="10.28515625" style="42" customWidth="1"/>
+    <col min="26" max="26" width="9.140625" style="42"/>
+    <col min="27" max="27" width="8.7109375" style="42" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="35"/>
+    </row>
+    <row r="2" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="38"/>
+    </row>
+    <row r="3" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="52">
+        <v>255</v>
+      </c>
+      <c r="D3" s="57">
+        <v>240</v>
+      </c>
+      <c r="E3" s="59">
+        <v>241</v>
+      </c>
+      <c r="F3" s="59">
+        <v>242</v>
+      </c>
+      <c r="G3" s="59">
+        <v>243</v>
+      </c>
+      <c r="H3" s="59">
+        <v>244</v>
+      </c>
+      <c r="I3" s="59">
+        <v>245</v>
+      </c>
+      <c r="J3" s="59">
+        <v>246</v>
+      </c>
+      <c r="K3" s="59">
+        <v>247</v>
+      </c>
+      <c r="L3" s="59">
+        <v>248</v>
+      </c>
+      <c r="M3" s="59">
+        <v>249</v>
+      </c>
+      <c r="N3" s="59">
+        <v>250</v>
+      </c>
+      <c r="O3" s="59">
+        <v>251</v>
+      </c>
+      <c r="P3" s="59">
+        <v>252</v>
+      </c>
+      <c r="Q3" s="59">
+        <v>253</v>
+      </c>
+      <c r="R3" s="59">
+        <v>254</v>
+      </c>
+      <c r="S3" s="52">
+        <v>255</v>
+      </c>
+      <c r="T3" s="57">
+        <v>240</v>
+      </c>
+      <c r="U3" s="37"/>
+      <c r="V3" s="38"/>
+      <c r="X3" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y3" s="42">
+        <f>SUM(17+16)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="53">
+        <v>15</v>
+      </c>
+      <c r="D4" s="47">
+        <v>0</v>
+      </c>
+      <c r="E4" s="48">
+        <v>1</v>
+      </c>
+      <c r="F4" s="48">
+        <v>2</v>
+      </c>
+      <c r="G4" s="48">
+        <v>3</v>
+      </c>
+      <c r="H4" s="48">
+        <v>4</v>
+      </c>
+      <c r="I4" s="48">
+        <v>5</v>
+      </c>
+      <c r="J4" s="48">
+        <v>6</v>
+      </c>
+      <c r="K4" s="48">
+        <v>7</v>
+      </c>
+      <c r="L4" s="48">
+        <v>8</v>
+      </c>
+      <c r="M4" s="48">
+        <v>9</v>
+      </c>
+      <c r="N4" s="48">
+        <v>10</v>
+      </c>
+      <c r="O4" s="48">
+        <v>11</v>
+      </c>
+      <c r="P4" s="48">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="48">
+        <v>13</v>
+      </c>
+      <c r="R4" s="48">
+        <v>14</v>
+      </c>
+      <c r="S4" s="46">
+        <v>15</v>
+      </c>
+      <c r="T4" s="55">
+        <v>0</v>
+      </c>
+      <c r="U4" s="37"/>
+      <c r="V4" s="38"/>
+      <c r="X4" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y4" s="42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="54">
+        <v>31</v>
+      </c>
+      <c r="D5" s="50">
+        <v>16</v>
+      </c>
+      <c r="E5" s="51">
+        <v>17</v>
+      </c>
+      <c r="F5" s="51">
+        <v>18</v>
+      </c>
+      <c r="G5" s="51">
+        <v>19</v>
+      </c>
+      <c r="H5" s="51">
+        <v>20</v>
+      </c>
+      <c r="I5" s="51">
+        <v>21</v>
+      </c>
+      <c r="J5" s="51">
+        <v>22</v>
+      </c>
+      <c r="K5" s="51">
+        <v>23</v>
+      </c>
+      <c r="L5" s="51">
+        <v>24</v>
+      </c>
+      <c r="M5" s="51">
+        <v>25</v>
+      </c>
+      <c r="N5" s="51">
+        <v>26</v>
+      </c>
+      <c r="O5" s="51">
+        <v>27</v>
+      </c>
+      <c r="P5" s="51">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="51">
+        <v>29</v>
+      </c>
+      <c r="R5" s="51">
+        <v>30</v>
+      </c>
+      <c r="S5" s="49">
+        <v>31</v>
+      </c>
+      <c r="T5" s="58">
+        <v>16</v>
+      </c>
+      <c r="U5" s="37"/>
+      <c r="V5" s="38"/>
+      <c r="X5" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y5" s="42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="54">
+        <v>47</v>
+      </c>
+      <c r="D6" s="50">
+        <v>32</v>
+      </c>
+      <c r="E6" s="51">
+        <v>33</v>
+      </c>
+      <c r="F6" s="51">
+        <v>34</v>
+      </c>
+      <c r="G6" s="51">
+        <v>35</v>
+      </c>
+      <c r="H6" s="51">
+        <v>36</v>
+      </c>
+      <c r="I6" s="51">
+        <v>37</v>
+      </c>
+      <c r="J6" s="51">
+        <v>38</v>
+      </c>
+      <c r="K6" s="51">
+        <v>39</v>
+      </c>
+      <c r="L6" s="51">
+        <v>40</v>
+      </c>
+      <c r="M6" s="51">
+        <v>41</v>
+      </c>
+      <c r="N6" s="51">
+        <v>42</v>
+      </c>
+      <c r="O6" s="51">
+        <v>43</v>
+      </c>
+      <c r="P6" s="51">
+        <v>44</v>
+      </c>
+      <c r="Q6" s="51">
+        <v>45</v>
+      </c>
+      <c r="R6" s="51">
+        <v>46</v>
+      </c>
+      <c r="S6" s="49">
+        <v>47</v>
+      </c>
+      <c r="T6" s="58">
+        <v>32</v>
+      </c>
+      <c r="U6" s="37"/>
+      <c r="V6" s="38"/>
+    </row>
+    <row r="7" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="54">
+        <v>63</v>
+      </c>
+      <c r="D7" s="50">
+        <v>48</v>
+      </c>
+      <c r="E7" s="51">
+        <v>49</v>
+      </c>
+      <c r="F7" s="51">
+        <v>50</v>
+      </c>
+      <c r="G7" s="51">
+        <v>51</v>
+      </c>
+      <c r="H7" s="51">
+        <v>52</v>
+      </c>
+      <c r="I7" s="51">
+        <v>53</v>
+      </c>
+      <c r="J7" s="51">
+        <v>54</v>
+      </c>
+      <c r="K7" s="51">
+        <v>55</v>
+      </c>
+      <c r="L7" s="51">
+        <v>56</v>
+      </c>
+      <c r="M7" s="51">
+        <v>57</v>
+      </c>
+      <c r="N7" s="51">
+        <v>58</v>
+      </c>
+      <c r="O7" s="51">
+        <v>59</v>
+      </c>
+      <c r="P7" s="51">
+        <v>60</v>
+      </c>
+      <c r="Q7" s="51">
+        <v>61</v>
+      </c>
+      <c r="R7" s="51">
+        <v>62</v>
+      </c>
+      <c r="S7" s="49">
+        <v>63</v>
+      </c>
+      <c r="T7" s="58">
+        <v>48</v>
+      </c>
+      <c r="U7" s="37"/>
+      <c r="V7" s="38"/>
+      <c r="X7" s="42">
+        <f>MOD(R13,Y4)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="54">
+        <v>79</v>
+      </c>
+      <c r="D8" s="50">
+        <v>64</v>
+      </c>
+      <c r="E8" s="51">
+        <v>65</v>
+      </c>
+      <c r="F8" s="51">
+        <v>66</v>
+      </c>
+      <c r="G8" s="51">
+        <v>67</v>
+      </c>
+      <c r="H8" s="51">
+        <v>68</v>
+      </c>
+      <c r="I8" s="51">
+        <v>69</v>
+      </c>
+      <c r="J8" s="51">
+        <v>70</v>
+      </c>
+      <c r="K8" s="51">
+        <v>71</v>
+      </c>
+      <c r="L8" s="51">
+        <v>72</v>
+      </c>
+      <c r="M8" s="51">
+        <v>73</v>
+      </c>
+      <c r="N8" s="51">
+        <v>74</v>
+      </c>
+      <c r="O8" s="51">
+        <v>75</v>
+      </c>
+      <c r="P8" s="51">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="51">
+        <v>77</v>
+      </c>
+      <c r="R8" s="51">
+        <v>78</v>
+      </c>
+      <c r="S8" s="49">
+        <v>79</v>
+      </c>
+      <c r="T8" s="58">
+        <v>64</v>
+      </c>
+      <c r="U8" s="37"/>
+      <c r="V8" s="38"/>
+    </row>
+    <row r="9" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="54">
+        <v>95</v>
+      </c>
+      <c r="D9" s="50">
+        <v>80</v>
+      </c>
+      <c r="E9" s="51">
+        <v>81</v>
+      </c>
+      <c r="F9" s="51">
+        <v>82</v>
+      </c>
+      <c r="G9" s="51">
+        <v>83</v>
+      </c>
+      <c r="H9" s="51">
+        <v>84</v>
+      </c>
+      <c r="I9" s="51">
+        <v>85</v>
+      </c>
+      <c r="J9" s="51">
+        <v>86</v>
+      </c>
+      <c r="K9" s="51">
+        <v>87</v>
+      </c>
+      <c r="L9" s="51">
+        <v>88</v>
+      </c>
+      <c r="M9" s="51">
+        <v>89</v>
+      </c>
+      <c r="N9" s="51">
+        <v>90</v>
+      </c>
+      <c r="O9" s="51">
+        <v>91</v>
+      </c>
+      <c r="P9" s="51">
+        <v>92</v>
+      </c>
+      <c r="Q9" s="51">
+        <v>93</v>
+      </c>
+      <c r="R9" s="51">
+        <v>94</v>
+      </c>
+      <c r="S9" s="49">
+        <v>95</v>
+      </c>
+      <c r="T9" s="58">
+        <v>80</v>
+      </c>
+      <c r="U9" s="37"/>
+      <c r="V9" s="38"/>
+    </row>
+    <row r="10" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="54">
+        <v>111</v>
+      </c>
+      <c r="D10" s="50">
+        <v>96</v>
+      </c>
+      <c r="E10" s="51">
+        <v>97</v>
+      </c>
+      <c r="F10" s="51">
+        <v>98</v>
+      </c>
+      <c r="G10" s="51">
+        <v>99</v>
+      </c>
+      <c r="H10" s="51">
+        <v>100</v>
+      </c>
+      <c r="I10" s="51">
+        <v>101</v>
+      </c>
+      <c r="J10" s="51">
+        <v>102</v>
+      </c>
+      <c r="K10" s="51">
+        <v>103</v>
+      </c>
+      <c r="L10" s="51">
+        <v>104</v>
+      </c>
+      <c r="M10" s="51">
+        <v>105</v>
+      </c>
+      <c r="N10" s="51">
+        <v>106</v>
+      </c>
+      <c r="O10" s="51">
+        <v>107</v>
+      </c>
+      <c r="P10" s="51">
+        <v>108</v>
+      </c>
+      <c r="Q10" s="51">
+        <v>109</v>
+      </c>
+      <c r="R10" s="51">
+        <v>110</v>
+      </c>
+      <c r="S10" s="49">
+        <v>111</v>
+      </c>
+      <c r="T10" s="58">
+        <v>96</v>
+      </c>
+      <c r="U10" s="37"/>
+      <c r="V10" s="38"/>
+    </row>
+    <row r="11" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="36"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="54">
+        <v>127</v>
+      </c>
+      <c r="D11" s="50">
+        <v>112</v>
+      </c>
+      <c r="E11" s="51">
+        <v>113</v>
+      </c>
+      <c r="F11" s="51">
+        <v>114</v>
+      </c>
+      <c r="G11" s="51">
+        <v>115</v>
+      </c>
+      <c r="H11" s="51">
+        <v>116</v>
+      </c>
+      <c r="I11" s="51">
+        <v>117</v>
+      </c>
+      <c r="J11" s="51">
+        <v>118</v>
+      </c>
+      <c r="K11" s="51">
+        <v>119</v>
+      </c>
+      <c r="L11" s="51">
+        <v>120</v>
+      </c>
+      <c r="M11" s="51">
+        <v>121</v>
+      </c>
+      <c r="N11" s="51">
+        <v>122</v>
+      </c>
+      <c r="O11" s="51">
+        <v>123</v>
+      </c>
+      <c r="P11" s="51">
+        <v>124</v>
+      </c>
+      <c r="Q11" s="51">
+        <v>125</v>
+      </c>
+      <c r="R11" s="51">
+        <v>126</v>
+      </c>
+      <c r="S11" s="49">
+        <v>127</v>
+      </c>
+      <c r="T11" s="58">
+        <v>112</v>
+      </c>
+      <c r="U11" s="37"/>
+      <c r="V11" s="38"/>
+    </row>
+    <row r="12" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="54">
+        <v>143</v>
+      </c>
+      <c r="D12" s="50">
+        <v>128</v>
+      </c>
+      <c r="E12" s="51">
+        <v>129</v>
+      </c>
+      <c r="F12" s="51">
+        <v>130</v>
+      </c>
+      <c r="G12" s="51">
+        <v>131</v>
+      </c>
+      <c r="H12" s="51">
+        <v>132</v>
+      </c>
+      <c r="I12" s="51">
+        <v>133</v>
+      </c>
+      <c r="J12" s="51">
+        <v>134</v>
+      </c>
+      <c r="K12" s="51">
+        <v>135</v>
+      </c>
+      <c r="L12" s="51">
+        <v>136</v>
+      </c>
+      <c r="M12" s="51">
+        <v>137</v>
+      </c>
+      <c r="N12" s="51">
+        <v>138</v>
+      </c>
+      <c r="O12" s="51">
+        <v>139</v>
+      </c>
+      <c r="P12" s="51">
+        <v>140</v>
+      </c>
+      <c r="Q12" s="51">
+        <v>141</v>
+      </c>
+      <c r="R12" s="51">
+        <v>142</v>
+      </c>
+      <c r="S12" s="49">
+        <v>143</v>
+      </c>
+      <c r="T12" s="58">
+        <v>128</v>
+      </c>
+      <c r="U12" s="37"/>
+      <c r="V12" s="38"/>
+    </row>
+    <row r="13" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="54">
+        <v>159</v>
+      </c>
+      <c r="D13" s="50">
+        <v>144</v>
+      </c>
+      <c r="E13" s="51">
+        <v>145</v>
+      </c>
+      <c r="F13" s="51">
+        <v>146</v>
+      </c>
+      <c r="G13" s="51">
+        <v>147</v>
+      </c>
+      <c r="H13" s="51">
+        <v>148</v>
+      </c>
+      <c r="I13" s="51">
+        <v>149</v>
+      </c>
+      <c r="J13" s="51">
+        <v>150</v>
+      </c>
+      <c r="K13" s="51">
+        <v>151</v>
+      </c>
+      <c r="L13" s="51">
+        <v>152</v>
+      </c>
+      <c r="M13" s="51">
+        <v>153</v>
+      </c>
+      <c r="N13" s="51">
+        <v>154</v>
+      </c>
+      <c r="O13" s="51">
+        <v>155</v>
+      </c>
+      <c r="P13" s="51">
+        <v>156</v>
+      </c>
+      <c r="Q13" s="51">
+        <v>157</v>
+      </c>
+      <c r="R13" s="51">
+        <v>158</v>
+      </c>
+      <c r="S13" s="49">
+        <v>159</v>
+      </c>
+      <c r="T13" s="58">
+        <v>144</v>
+      </c>
+      <c r="U13" s="37"/>
+      <c r="V13" s="38"/>
+    </row>
+    <row r="14" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="36"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="54">
+        <v>175</v>
+      </c>
+      <c r="D14" s="50">
+        <v>160</v>
+      </c>
+      <c r="E14" s="51">
+        <v>161</v>
+      </c>
+      <c r="F14" s="51">
+        <v>162</v>
+      </c>
+      <c r="G14" s="51">
+        <v>163</v>
+      </c>
+      <c r="H14" s="51">
+        <v>164</v>
+      </c>
+      <c r="I14" s="51">
+        <v>165</v>
+      </c>
+      <c r="J14" s="51">
+        <v>166</v>
+      </c>
+      <c r="K14" s="51">
+        <v>167</v>
+      </c>
+      <c r="L14" s="51">
+        <v>168</v>
+      </c>
+      <c r="M14" s="51">
+        <v>169</v>
+      </c>
+      <c r="N14" s="51">
+        <v>170</v>
+      </c>
+      <c r="O14" s="51">
+        <v>171</v>
+      </c>
+      <c r="P14" s="51">
+        <v>172</v>
+      </c>
+      <c r="Q14" s="51">
+        <v>173</v>
+      </c>
+      <c r="R14" s="51">
+        <v>174</v>
+      </c>
+      <c r="S14" s="49">
+        <v>175</v>
+      </c>
+      <c r="T14" s="58">
+        <v>160</v>
+      </c>
+      <c r="U14" s="37"/>
+      <c r="V14" s="38"/>
+    </row>
+    <row r="15" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="36"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="54">
+        <v>191</v>
+      </c>
+      <c r="D15" s="50">
+        <v>176</v>
+      </c>
+      <c r="E15" s="51">
+        <v>177</v>
+      </c>
+      <c r="F15" s="51">
+        <v>178</v>
+      </c>
+      <c r="G15" s="51">
+        <v>179</v>
+      </c>
+      <c r="H15" s="51">
+        <v>180</v>
+      </c>
+      <c r="I15" s="51">
+        <v>181</v>
+      </c>
+      <c r="J15" s="51">
+        <v>182</v>
+      </c>
+      <c r="K15" s="51">
+        <v>183</v>
+      </c>
+      <c r="L15" s="51">
+        <v>184</v>
+      </c>
+      <c r="M15" s="51">
+        <v>185</v>
+      </c>
+      <c r="N15" s="51">
+        <v>186</v>
+      </c>
+      <c r="O15" s="51">
+        <v>187</v>
+      </c>
+      <c r="P15" s="51">
+        <v>188</v>
+      </c>
+      <c r="Q15" s="51">
+        <v>189</v>
+      </c>
+      <c r="R15" s="51">
+        <v>190</v>
+      </c>
+      <c r="S15" s="49">
+        <v>191</v>
+      </c>
+      <c r="T15" s="58">
+        <v>176</v>
+      </c>
+      <c r="U15" s="37"/>
+      <c r="V15" s="38"/>
+    </row>
+    <row r="16" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="36"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="54">
+        <v>207</v>
+      </c>
+      <c r="D16" s="50">
+        <v>192</v>
+      </c>
+      <c r="E16" s="51">
+        <v>193</v>
+      </c>
+      <c r="F16" s="51">
+        <v>194</v>
+      </c>
+      <c r="G16" s="51">
+        <v>195</v>
+      </c>
+      <c r="H16" s="51">
+        <v>196</v>
+      </c>
+      <c r="I16" s="51">
+        <v>197</v>
+      </c>
+      <c r="J16" s="51">
+        <v>198</v>
+      </c>
+      <c r="K16" s="51">
+        <v>199</v>
+      </c>
+      <c r="L16" s="51">
+        <v>200</v>
+      </c>
+      <c r="M16" s="51">
+        <v>201</v>
+      </c>
+      <c r="N16" s="51">
+        <v>202</v>
+      </c>
+      <c r="O16" s="51">
+        <v>203</v>
+      </c>
+      <c r="P16" s="51">
+        <v>204</v>
+      </c>
+      <c r="Q16" s="51">
+        <v>205</v>
+      </c>
+      <c r="R16" s="51">
+        <v>206</v>
+      </c>
+      <c r="S16" s="49">
+        <v>207</v>
+      </c>
+      <c r="T16" s="58">
+        <v>192</v>
+      </c>
+      <c r="U16" s="37"/>
+      <c r="V16" s="38"/>
+    </row>
+    <row r="17" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="36"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="54">
+        <v>223</v>
+      </c>
+      <c r="D17" s="50">
+        <v>208</v>
+      </c>
+      <c r="E17" s="51">
+        <v>209</v>
+      </c>
+      <c r="F17" s="51">
+        <v>210</v>
+      </c>
+      <c r="G17" s="51">
+        <v>211</v>
+      </c>
+      <c r="H17" s="51">
+        <v>212</v>
+      </c>
+      <c r="I17" s="51">
+        <v>213</v>
+      </c>
+      <c r="J17" s="51">
+        <v>214</v>
+      </c>
+      <c r="K17" s="51">
+        <v>215</v>
+      </c>
+      <c r="L17" s="51">
+        <v>216</v>
+      </c>
+      <c r="M17" s="51">
+        <v>217</v>
+      </c>
+      <c r="N17" s="51">
+        <v>218</v>
+      </c>
+      <c r="O17" s="51">
+        <v>219</v>
+      </c>
+      <c r="P17" s="51">
+        <v>220</v>
+      </c>
+      <c r="Q17" s="51">
+        <v>221</v>
+      </c>
+      <c r="R17" s="51">
+        <v>222</v>
+      </c>
+      <c r="S17" s="49">
+        <v>223</v>
+      </c>
+      <c r="T17" s="58">
+        <v>208</v>
+      </c>
+      <c r="U17" s="37"/>
+      <c r="V17" s="38"/>
+    </row>
+    <row r="18" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="54">
+        <v>239</v>
+      </c>
+      <c r="D18" s="50">
+        <v>224</v>
+      </c>
+      <c r="E18" s="51">
+        <v>225</v>
+      </c>
+      <c r="F18" s="51">
+        <v>226</v>
+      </c>
+      <c r="G18" s="51">
+        <v>227</v>
+      </c>
+      <c r="H18" s="51">
+        <v>228</v>
+      </c>
+      <c r="I18" s="51">
+        <v>229</v>
+      </c>
+      <c r="J18" s="51">
+        <v>230</v>
+      </c>
+      <c r="K18" s="51">
+        <v>231</v>
+      </c>
+      <c r="L18" s="51">
+        <v>232</v>
+      </c>
+      <c r="M18" s="51">
+        <v>233</v>
+      </c>
+      <c r="N18" s="51">
+        <v>234</v>
+      </c>
+      <c r="O18" s="51">
+        <v>235</v>
+      </c>
+      <c r="P18" s="51">
+        <v>236</v>
+      </c>
+      <c r="Q18" s="51">
+        <v>237</v>
+      </c>
+      <c r="R18" s="51">
+        <v>238</v>
+      </c>
+      <c r="S18" s="49">
+        <v>239</v>
+      </c>
+      <c r="T18" s="58">
+        <v>224</v>
+      </c>
+      <c r="U18" s="37"/>
+      <c r="V18" s="38"/>
+    </row>
+    <row r="19" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="52">
+        <v>255</v>
+      </c>
+      <c r="D19" s="44">
+        <v>240</v>
+      </c>
+      <c r="E19" s="45">
+        <v>241</v>
+      </c>
+      <c r="F19" s="45">
+        <v>242</v>
+      </c>
+      <c r="G19" s="45">
+        <v>243</v>
+      </c>
+      <c r="H19" s="45">
+        <v>244</v>
+      </c>
+      <c r="I19" s="45">
+        <v>245</v>
+      </c>
+      <c r="J19" s="45">
+        <v>246</v>
+      </c>
+      <c r="K19" s="45">
+        <v>247</v>
+      </c>
+      <c r="L19" s="45">
+        <v>248</v>
+      </c>
+      <c r="M19" s="45">
+        <v>249</v>
+      </c>
+      <c r="N19" s="45">
+        <v>250</v>
+      </c>
+      <c r="O19" s="45">
+        <v>251</v>
+      </c>
+      <c r="P19" s="45">
+        <v>252</v>
+      </c>
+      <c r="Q19" s="45">
+        <v>253</v>
+      </c>
+      <c r="R19" s="45">
+        <v>254</v>
+      </c>
+      <c r="S19" s="43">
+        <v>255</v>
+      </c>
+      <c r="T19" s="57">
+        <v>240</v>
+      </c>
+      <c r="U19" s="37"/>
+      <c r="V19" s="38"/>
+    </row>
+    <row r="20" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="53">
+        <v>15</v>
+      </c>
+      <c r="D20" s="55">
+        <v>0</v>
+      </c>
+      <c r="E20" s="56">
+        <v>1</v>
+      </c>
+      <c r="F20" s="56">
+        <v>2</v>
+      </c>
+      <c r="G20" s="56">
+        <v>3</v>
+      </c>
+      <c r="H20" s="56">
+        <v>4</v>
+      </c>
+      <c r="I20" s="56">
+        <v>5</v>
+      </c>
+      <c r="J20" s="56">
+        <v>6</v>
+      </c>
+      <c r="K20" s="56">
+        <v>7</v>
+      </c>
+      <c r="L20" s="56">
+        <v>8</v>
+      </c>
+      <c r="M20" s="56">
+        <v>9</v>
+      </c>
+      <c r="N20" s="56">
+        <v>10</v>
+      </c>
+      <c r="O20" s="56">
+        <v>11</v>
+      </c>
+      <c r="P20" s="56">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="56">
+        <v>13</v>
+      </c>
+      <c r="R20" s="56">
+        <v>14</v>
+      </c>
+      <c r="S20" s="53">
+        <v>15</v>
+      </c>
+      <c r="T20" s="55">
+        <v>0</v>
+      </c>
+      <c r="U20" s="37"/>
+      <c r="V20" s="38"/>
+    </row>
+    <row r="21" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="36"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="38"/>
+    </row>
+    <row r="22" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40">
+        <f>SUM(256-16)</f>
+        <v>240</v>
+      </c>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="41"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D4:S19">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>$Y$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:S3">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>$Y$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C19">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>$Y$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:S20">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>$Y$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T4:T19">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>$Y$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>$Y$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>$Y$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>$Y$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T20">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$Y$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documents/ChunkUpdateMath.xlsx
+++ b/Documents/ChunkUpdateMath.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudioProjects\PixelProject\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C14F46-497B-4440-AD25-B3571964B447}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13526A7B-CA80-4843-B520-29798D446D32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31305" yWindow="7140" windowWidth="21600" windowHeight="11475" activeTab="3" xr2:uid="{11E5D31D-36D7-45CF-BBA8-6E265D1131AF}"/>
+    <workbookView xWindow="40740" yWindow="6570" windowWidth="21600" windowHeight="11475" activeTab="3" xr2:uid="{11E5D31D-36D7-45CF-BBA8-6E265D1131AF}"/>
   </bookViews>
   <sheets>
     <sheet name="ChunkUpdate" sheetId="1" r:id="rId1"/>
@@ -283,7 +283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -434,6 +434,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5732,8 +5744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D61EA23-8960-4D35-B73F-6BF8BB0B9F26}">
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5750,22 +5762,54 @@
       <c r="A1" s="33"/>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
+      <c r="D1" s="60">
+        <v>0</v>
+      </c>
+      <c r="E1" s="60">
+        <v>1</v>
+      </c>
+      <c r="F1" s="60">
+        <v>2</v>
+      </c>
+      <c r="G1" s="60">
+        <v>3</v>
+      </c>
+      <c r="H1" s="60">
+        <v>4</v>
+      </c>
+      <c r="I1" s="60">
+        <v>5</v>
+      </c>
+      <c r="J1" s="60">
+        <v>6</v>
+      </c>
+      <c r="K1" s="60">
+        <v>7</v>
+      </c>
+      <c r="L1" s="60">
+        <v>8</v>
+      </c>
+      <c r="M1" s="60">
+        <v>9</v>
+      </c>
+      <c r="N1" s="60">
+        <v>10</v>
+      </c>
+      <c r="O1" s="60">
+        <v>11</v>
+      </c>
+      <c r="P1" s="60">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="60">
+        <v>13</v>
+      </c>
+      <c r="R1" s="60">
+        <v>14</v>
+      </c>
+      <c r="S1" s="60">
+        <v>15</v>
+      </c>
       <c r="T1" s="34"/>
       <c r="U1" s="34"/>
       <c r="V1" s="35"/>
@@ -5857,12 +5901,13 @@
         <v>16</v>
       </c>
       <c r="Y3" s="42">
-        <f>SUM(17+16)</f>
-        <v>33</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
+      <c r="A4" s="61">
+        <v>0</v>
+      </c>
       <c r="B4" s="37"/>
       <c r="C4" s="53">
         <v>15</v>
@@ -5919,7 +5964,9 @@
         <v>0</v>
       </c>
       <c r="U4" s="37"/>
-      <c r="V4" s="38"/>
+      <c r="V4" s="62">
+        <v>15</v>
+      </c>
       <c r="X4" s="42" t="s">
         <v>17</v>
       </c>
@@ -5928,7 +5975,9 @@
       </c>
     </row>
     <row r="5" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
+      <c r="A5" s="61">
+        <v>1</v>
+      </c>
       <c r="B5" s="37"/>
       <c r="C5" s="54">
         <v>31</v>
@@ -5985,7 +6034,9 @@
         <v>16</v>
       </c>
       <c r="U5" s="37"/>
-      <c r="V5" s="38"/>
+      <c r="V5" s="62">
+        <v>14</v>
+      </c>
       <c r="X5" s="42" t="s">
         <v>18</v>
       </c>
@@ -5994,7 +6045,9 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
+      <c r="A6" s="61">
+        <v>2</v>
+      </c>
       <c r="B6" s="37"/>
       <c r="C6" s="54">
         <v>47</v>
@@ -6051,10 +6104,14 @@
         <v>32</v>
       </c>
       <c r="U6" s="37"/>
-      <c r="V6" s="38"/>
+      <c r="V6" s="62">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
+      <c r="A7" s="61">
+        <v>3</v>
+      </c>
       <c r="B7" s="37"/>
       <c r="C7" s="54">
         <v>63</v>
@@ -6111,14 +6168,18 @@
         <v>48</v>
       </c>
       <c r="U7" s="37"/>
-      <c r="V7" s="38"/>
+      <c r="V7" s="62">
+        <v>12</v>
+      </c>
       <c r="X7" s="42">
         <f>MOD(R13,Y4)</f>
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
+      <c r="A8" s="61">
+        <v>4</v>
+      </c>
       <c r="B8" s="37"/>
       <c r="C8" s="54">
         <v>79</v>
@@ -6175,10 +6236,14 @@
         <v>64</v>
       </c>
       <c r="U8" s="37"/>
-      <c r="V8" s="38"/>
+      <c r="V8" s="62">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
+      <c r="A9" s="61">
+        <v>5</v>
+      </c>
       <c r="B9" s="37"/>
       <c r="C9" s="54">
         <v>95</v>
@@ -6235,10 +6300,18 @@
         <v>80</v>
       </c>
       <c r="U9" s="37"/>
-      <c r="V9" s="38"/>
+      <c r="V9" s="62">
+        <v>10</v>
+      </c>
+      <c r="X9" s="42">
+        <f>SUM(Y4-I4)</f>
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
+      <c r="A10" s="61">
+        <v>6</v>
+      </c>
       <c r="B10" s="37"/>
       <c r="C10" s="54">
         <v>111</v>
@@ -6295,10 +6368,14 @@
         <v>96</v>
       </c>
       <c r="U10" s="37"/>
-      <c r="V10" s="38"/>
+      <c r="V10" s="62">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
+      <c r="A11" s="61">
+        <v>7</v>
+      </c>
       <c r="B11" s="37"/>
       <c r="C11" s="54">
         <v>127</v>
@@ -6355,10 +6432,14 @@
         <v>112</v>
       </c>
       <c r="U11" s="37"/>
-      <c r="V11" s="38"/>
+      <c r="V11" s="62">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
+      <c r="A12" s="61">
+        <v>8</v>
+      </c>
       <c r="B12" s="37"/>
       <c r="C12" s="54">
         <v>143</v>
@@ -6415,10 +6496,14 @@
         <v>128</v>
       </c>
       <c r="U12" s="37"/>
-      <c r="V12" s="38"/>
+      <c r="V12" s="62">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
+      <c r="A13" s="61">
+        <v>9</v>
+      </c>
       <c r="B13" s="37"/>
       <c r="C13" s="54">
         <v>159</v>
@@ -6475,10 +6560,14 @@
         <v>144</v>
       </c>
       <c r="U13" s="37"/>
-      <c r="V13" s="38"/>
+      <c r="V13" s="62">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
+      <c r="A14" s="61">
+        <v>10</v>
+      </c>
       <c r="B14" s="37"/>
       <c r="C14" s="54">
         <v>175</v>
@@ -6535,10 +6624,14 @@
         <v>160</v>
       </c>
       <c r="U14" s="37"/>
-      <c r="V14" s="38"/>
+      <c r="V14" s="62">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
+      <c r="A15" s="61">
+        <v>11</v>
+      </c>
       <c r="B15" s="37"/>
       <c r="C15" s="54">
         <v>191</v>
@@ -6595,10 +6688,14 @@
         <v>176</v>
       </c>
       <c r="U15" s="37"/>
-      <c r="V15" s="38"/>
+      <c r="V15" s="62">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
+      <c r="A16" s="61">
+        <v>12</v>
+      </c>
       <c r="B16" s="37"/>
       <c r="C16" s="54">
         <v>207</v>
@@ -6655,10 +6752,14 @@
         <v>192</v>
       </c>
       <c r="U16" s="37"/>
-      <c r="V16" s="38"/>
+      <c r="V16" s="62">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+      <c r="A17" s="61">
+        <v>13</v>
+      </c>
       <c r="B17" s="37"/>
       <c r="C17" s="54">
         <v>223</v>
@@ -6715,10 +6816,14 @@
         <v>208</v>
       </c>
       <c r="U17" s="37"/>
-      <c r="V17" s="38"/>
+      <c r="V17" s="62">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
+      <c r="A18" s="61">
+        <v>14</v>
+      </c>
       <c r="B18" s="37"/>
       <c r="C18" s="54">
         <v>239</v>
@@ -6775,10 +6880,14 @@
         <v>224</v>
       </c>
       <c r="U18" s="37"/>
-      <c r="V18" s="38"/>
+      <c r="V18" s="62">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
+      <c r="A19" s="61">
+        <v>15</v>
+      </c>
       <c r="B19" s="37"/>
       <c r="C19" s="52">
         <v>255</v>
@@ -6835,7 +6944,9 @@
         <v>240</v>
       </c>
       <c r="U19" s="37"/>
-      <c r="V19" s="38"/>
+      <c r="V19" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36"/>
@@ -6925,25 +7036,54 @@
       <c r="A22" s="39"/>
       <c r="B22" s="40"/>
       <c r="C22" s="40"/>
-      <c r="D22" s="40">
-        <f>SUM(256-16)</f>
-        <v>240</v>
-      </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
+      <c r="D22" s="63">
+        <v>15</v>
+      </c>
+      <c r="E22" s="63">
+        <v>14</v>
+      </c>
+      <c r="F22" s="63">
+        <v>13</v>
+      </c>
+      <c r="G22" s="63">
+        <v>12</v>
+      </c>
+      <c r="H22" s="63">
+        <v>11</v>
+      </c>
+      <c r="I22" s="63">
+        <v>10</v>
+      </c>
+      <c r="J22" s="63">
+        <v>9</v>
+      </c>
+      <c r="K22" s="63">
+        <v>8</v>
+      </c>
+      <c r="L22" s="63">
+        <v>7</v>
+      </c>
+      <c r="M22" s="63">
+        <v>6</v>
+      </c>
+      <c r="N22" s="63">
+        <v>5</v>
+      </c>
+      <c r="O22" s="63">
+        <v>4</v>
+      </c>
+      <c r="P22" s="63">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="63">
+        <v>2</v>
+      </c>
+      <c r="R22" s="63">
+        <v>1</v>
+      </c>
+      <c r="S22" s="63">
+        <v>0</v>
+      </c>
       <c r="T22" s="40"/>
       <c r="U22" s="40"/>
       <c r="V22" s="41"/>
